--- a/TCN_test_predictions.xlsx
+++ b/TCN_test_predictions.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.072752445936203</v>
+        <v>1.080114960670471</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05652940273284912</v>
+        <v>1.026495814323425</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04821081459522247</v>
+        <v>1.01989483833313</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.03173798322677612</v>
+        <v>1.010825753211975</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0266885906457901</v>
+        <v>0.9842523336410522</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02794516459107399</v>
+        <v>1.035359621047974</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.000279746949672699</v>
+        <v>1.012654542922974</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00930553674697876</v>
+        <v>1.053534150123596</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.007470268756151199</v>
+        <v>0.9976373314857483</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004552271217107773</v>
+        <v>1.026710510253906</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.07838986814022064</v>
+        <v>1.004870772361755</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.007131133228540421</v>
+        <v>0.9806633591651917</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1046935021877289</v>
+        <v>1.110785841941833</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.07593726366758347</v>
+        <v>1.065989017486572</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.03526582941412926</v>
+        <v>0.9832664132118225</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03132683783769608</v>
+        <v>1.036178827285767</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.08178922533988953</v>
+        <v>1.042157769203186</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.04314468801021576</v>
+        <v>1.023253202438354</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.08156894147396088</v>
+        <v>1.039357662200928</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05323230847716331</v>
+        <v>0.9853734374046326</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0250875186175108</v>
+        <v>0.9828130006790161</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.007826089859008789</v>
+        <v>1.012926936149597</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0108312088996172</v>
+        <v>0.9665934443473816</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08135022968053818</v>
+        <v>1.042612791061401</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05480766296386719</v>
+        <v>1.074655055999756</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.05059250816702843</v>
+        <v>1.004139065742493</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1163382679224014</v>
+        <v>1.031819105148315</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05085822194814682</v>
+        <v>1.055523753166199</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01527386158704758</v>
+        <v>1.013423442840576</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.08911114931106567</v>
+        <v>0.9963904619216919</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.008355434983968735</v>
+        <v>1.042546987533569</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.007678218185901642</v>
+        <v>1.078221321105957</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01698432117700577</v>
+        <v>1.022942662239075</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0517822839319706</v>
+        <v>1.022767543792725</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.09858867526054382</v>
+        <v>1.016863822937012</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.094017393887043</v>
+        <v>1.058178663253784</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.02959542162716389</v>
+        <v>1.0254225730896</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.06561421602964401</v>
+        <v>0.9947826266288757</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.07161246240139008</v>
+        <v>0.9974372982978821</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0954073965549469</v>
+        <v>0.9894916415214539</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.01093180105090141</v>
+        <v>0.9871235489845276</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0077696293592453</v>
+        <v>0.9527919888496399</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.05777473747730255</v>
+        <v>1.025972485542297</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.03030161000788212</v>
+        <v>1.005241513252258</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01790279522538185</v>
+        <v>1.058072924613953</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.03678100928664207</v>
+        <v>1.031011343002319</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.01424723491072655</v>
+        <v>1.020207524299622</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.02035115659236908</v>
+        <v>0.9871075749397278</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06096524000167847</v>
+        <v>0.9720498919487</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1084639877080917</v>
+        <v>1.053387641906738</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.01217781752347946</v>
+        <v>1.042438507080078</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.006914462894201279</v>
+        <v>1.057455539703369</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.038005281239748</v>
+        <v>1.043291449546814</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.04104118049144745</v>
+        <v>1.033331155776978</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.07807675004005432</v>
+        <v>1.005672574043274</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.09483708441257477</v>
+        <v>0.995996356010437</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.03005789779126644</v>
+        <v>1.058679103851318</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0244101956486702</v>
+        <v>1.038607835769653</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.009006761014461517</v>
+        <v>1.027692317962646</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.07654841989278793</v>
+        <v>1.071831703186035</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01810208149254322</v>
+        <v>1.108876705169678</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.05172354727983475</v>
+        <v>1.027176022529602</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0717192068696022</v>
+        <v>0.967502772808075</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.05553236603736877</v>
+        <v>0.9991354942321777</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.07436296343803406</v>
+        <v>1.051844239234924</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1316968649625778</v>
+        <v>1.026998996734619</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01044705137610435</v>
+        <v>1.06489360332489</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.02679169178009033</v>
+        <v>0.9977601170539856</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.05893377214670181</v>
+        <v>0.9781705737113953</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.02128453925251961</v>
+        <v>1.103418350219727</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05634259805083275</v>
+        <v>1.044859409332275</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.00200982391834259</v>
+        <v>1.070040225982666</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.06475622206926346</v>
+        <v>1.014069795608521</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.03156185150146484</v>
+        <v>0.9720075726509094</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.03371559455990791</v>
+        <v>0.9878084063529968</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.03463127464056015</v>
+        <v>0.9474352598190308</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1172331497073174</v>
+        <v>1.005721092224121</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.02806845679879189</v>
+        <v>0.9430550932884216</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.03431696817278862</v>
+        <v>1.039334893226624</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.04729579389095306</v>
+        <v>0.9929872155189514</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.08923034369945526</v>
+        <v>0.9528513550758362</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.01777607947587967</v>
+        <v>1.057911157608032</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.01498366519808769</v>
+        <v>1.007620453834534</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1084108799695969</v>
+        <v>1.013115644454956</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.06813816726207733</v>
+        <v>0.9901762008666992</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.02725858986377716</v>
+        <v>1.006051182746887</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.02896340936422348</v>
+        <v>1.114018201828003</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.07119117677211761</v>
+        <v>1.03415060043335</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.03294893354177475</v>
+        <v>1.010083079338074</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.295259714126587e-05</v>
+        <v>0.9931718707084656</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.04924234002828598</v>
+        <v>0.9855361580848694</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.05835144966840744</v>
+        <v>1.013185977935791</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.008495723828673363</v>
+        <v>0.962161123752594</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.02443305030465126</v>
+        <v>1.040073752403259</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.08016836643218994</v>
+        <v>0.9031621813774109</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.04726831987500191</v>
+        <v>1.012681603431702</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.002174247056245804</v>
+        <v>1.05356228351593</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.02799154445528984</v>
+        <v>0.995205283164978</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.0590970404446125</v>
+        <v>1.023944735527039</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.02357108145952225</v>
+        <v>1.05427873134613</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.09861225634813309</v>
+        <v>1.043139815330505</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.04826732724905014</v>
+        <v>1.037226676940918</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.06318876147270203</v>
+        <v>0.9370930790901184</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.005241505801677704</v>
+        <v>1.025703907012939</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.000672217458486557</v>
+        <v>0.9587928652763367</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.07078005373477936</v>
+        <v>1.020995259284973</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.08464747667312622</v>
+        <v>1.000285863876343</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1044524535536766</v>
+        <v>1.052892327308655</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.06956824660301208</v>
+        <v>0.9932430386543274</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.585304021835327e-05</v>
+        <v>0.9548721313476562</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.08391150832176208</v>
+        <v>1.021665692329407</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1253688335418701</v>
+        <v>1.041664361953735</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0004865750670433044</v>
+        <v>1.012238383293152</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.03793523833155632</v>
+        <v>0.9993671774864197</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.007091887295246124</v>
+        <v>1.021147131919861</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.01398139446973801</v>
+        <v>1.048246383666992</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.09991537034511566</v>
+        <v>1.001937985420227</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.08372274041175842</v>
+        <v>1.099470376968384</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.02342327870428562</v>
+        <v>1.002625823020935</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.06085555255413055</v>
+        <v>0.9847568869590759</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.09030525386333466</v>
+        <v>1.07650351524353</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1427440494298935</v>
+        <v>1.022899508476257</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.04793483763933182</v>
+        <v>1.00392484664917</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.01079359278082848</v>
+        <v>0.9518110752105713</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.1368739008903503</v>
+        <v>0.9791263937950134</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.01854773610830307</v>
+        <v>1.010531067848206</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.007389191538095474</v>
+        <v>0.9593291878700256</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1108210682868958</v>
+        <v>1.01294469833374</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.06512784212827682</v>
+        <v>0.9622257351875305</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.04141118377447128</v>
+        <v>1.105838060379028</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.06559622287750244</v>
+        <v>1.068086743354797</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.07147374749183655</v>
+        <v>1.021425485610962</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.07976295053958893</v>
+        <v>1.041318535804749</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.01398314535617828</v>
+        <v>1.007420063018799</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.05306515842676163</v>
+        <v>0.982800304889679</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.06115886196494102</v>
+        <v>0.9629599452018738</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.08688196539878845</v>
+        <v>0.9262202382087708</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.05740103498101234</v>
+        <v>1.013003826141357</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.07830524444580078</v>
+        <v>1.048129677772522</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.04794802889227867</v>
+        <v>1.037084937095642</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.02643902786076069</v>
+        <v>1.005356907844543</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.08754846453666687</v>
+        <v>1.055196285247803</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.09652060270309448</v>
+        <v>0.9228480458259583</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.06039770692586899</v>
+        <v>0.9807340502738953</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1424237638711929</v>
+        <v>1.057818174362183</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.02540122531354427</v>
+        <v>1.032520055770874</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.08092290163040161</v>
+        <v>1.064999341964722</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.1253094971179962</v>
+        <v>0.9902752041816711</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.07085028290748596</v>
+        <v>1.052379250526428</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.07295393943786621</v>
+        <v>0.9429090619087219</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.0007319673895835876</v>
+        <v>0.9708999395370483</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.1159104257822037</v>
+        <v>0.9882385730743408</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.05427232384681702</v>
+        <v>0.9872975945472717</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.05616745352745056</v>
+        <v>1.071680903434753</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.1450910866260529</v>
+        <v>1.020998597145081</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.02315470203757286</v>
+        <v>1.023732304573059</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.07686292380094528</v>
+        <v>0.9506744146347046</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.09549155831336975</v>
+        <v>0.9728852510452271</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.07944959402084351</v>
+        <v>1.013508439064026</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.08391644060611725</v>
+        <v>1.02364981174469</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1087720468640327</v>
+        <v>0.9636529684066772</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.09214473515748978</v>
+        <v>1.075624585151672</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1503332406282425</v>
+        <v>1.043802380561829</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.01621300354599953</v>
+        <v>1.05765700340271</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.03707250580191612</v>
+        <v>0.9786362648010254</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.02187177166342735</v>
+        <v>1.028536319732666</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.04177946597337723</v>
+        <v>0.9936639070510864</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.0349523052573204</v>
+        <v>0.9949139952659607</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.02731239423155785</v>
+        <v>1.06932806968689</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.06698548793792725</v>
+        <v>1.058262586593628</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.06244296580553055</v>
+        <v>0.9769853353500366</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.09480912983417511</v>
+        <v>1.077211260795593</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.05881374329328537</v>
+        <v>1.034168720245361</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.03041380643844604</v>
+        <v>0.9999822974205017</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.07224699854850769</v>
+        <v>1.02351450920105</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.08635802567005157</v>
+        <v>1.064430832862854</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.06551074981689453</v>
+        <v>1.023016571998596</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.05311612784862518</v>
+        <v>1.011846303939819</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1013420671224594</v>
+        <v>1.000455141067505</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1381170004606247</v>
+        <v>1.066748976707458</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.02840804867446423</v>
+        <v>0.9508281350135803</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.0451645702123642</v>
+        <v>1.005759716033936</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.0273036677390337</v>
+        <v>0.9938779473304749</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.01783859729766846</v>
+        <v>0.9983527064323425</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.07541680335998535</v>
+        <v>1.055327534675598</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.001161172986030579</v>
+        <v>0.9847314357757568</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.07564398646354675</v>
+        <v>1.057730436325073</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.02929727174341679</v>
+        <v>0.9587109684944153</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.03138620778918266</v>
+        <v>1.014819145202637</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.05202519148588181</v>
+        <v>1.098161816596985</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.03403133153915405</v>
+        <v>0.9934628009796143</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.02927066385746002</v>
+        <v>1.014884471893311</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.09459710866212845</v>
+        <v>1.017679929733276</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.05225621163845062</v>
+        <v>0.9709377884864807</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.03762878850102425</v>
+        <v>1.066978335380554</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.04822518676519394</v>
+        <v>0.9572629332542419</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.06351303309202194</v>
+        <v>1.066319227218628</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.1006863117218018</v>
+        <v>0.937780499458313</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.03182500600814819</v>
+        <v>0.9845570921897888</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.054527647793293</v>
+        <v>0.9903257489204407</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.08334404230117798</v>
+        <v>1.016392111778259</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.01212980225682259</v>
+        <v>1.034157752990723</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.1434114575386047</v>
+        <v>1.014023900032043</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.02558920159935951</v>
+        <v>1.019991397857666</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.07914139330387115</v>
+        <v>1.041713237762451</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.06808126717805862</v>
+        <v>0.9904608130455017</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1465581953525543</v>
+        <v>0.9155938029289246</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.0301437433809042</v>
+        <v>1.017276287078857</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.05633846297860146</v>
+        <v>1.008952021598816</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.08302801847457886</v>
+        <v>1.030807852745056</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.04498766362667084</v>
+        <v>1.008596658706665</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.08835286647081375</v>
+        <v>1.004704475402832</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.07696639001369476</v>
+        <v>1.000340580940247</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.08257673680782318</v>
+        <v>0.9177641272544861</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.04121029749512672</v>
+        <v>0.967966616153717</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1781219691038132</v>
+        <v>1.04679000377655</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.06575750559568405</v>
+        <v>0.9851452708244324</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.06755507737398148</v>
+        <v>0.9871430993080139</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.07839947938919067</v>
+        <v>0.9708799719810486</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.07020924985408783</v>
+        <v>0.9371480345726013</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.1410852372646332</v>
+        <v>0.9925739169120789</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.118132472038269</v>
+        <v>1.040952801704407</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1267931163311005</v>
+        <v>1.051753520965576</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.09579330682754517</v>
+        <v>1.098010540008545</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.005557581782341003</v>
+        <v>1.057856559753418</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.07166188210248947</v>
+        <v>1.056551337242126</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.09422554075717926</v>
+        <v>0.9259945750236511</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-0.02422603964805603</v>
+        <v>1.000972509384155</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.06793686747550964</v>
+        <v>1.037519097328186</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.02521035075187683</v>
+        <v>0.9483721852302551</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.006454724818468094</v>
+        <v>0.9938605427742004</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.1328533887863159</v>
+        <v>0.9939191937446594</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.04856989160180092</v>
+        <v>1.050245046615601</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.07684259861707687</v>
+        <v>1.002839922904968</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -2319,1279 +2319,1279 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.1008013635873795</v>
+        <v>1.057443261146545</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0.9960886836051941</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.05107820406556129</v>
+        <v>0.9795746207237244</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0.9947848916053772</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.03106082603335381</v>
+        <v>1.087381601333618</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0.9908735156059265</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.03860905766487122</v>
+        <v>1.008098602294922</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0.9895697236061096</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.04338455572724342</v>
+        <v>0.9711814522743225</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0.9817470908164978</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.09383057057857513</v>
+        <v>1.021913886070251</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0.9674054980278015</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.05346693098545074</v>
+        <v>0.98499995470047</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0.9661017060279846</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.1701720356941223</v>
+        <v>1.076579332351685</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0.9543676376342773</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.0111064650118351</v>
+        <v>0.9491671919822693</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0.9504563212394714</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.0853213369846344</v>
+        <v>0.9729869961738586</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0.9491525292396545</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.1177835389971733</v>
+        <v>0.9216110110282898</v>
       </c>
       <c r="B246" t="n">
-        <v>0.9947848916053772</v>
+        <v>0.9387223124504089</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.1077664867043495</v>
+        <v>0.8753702044487</v>
       </c>
       <c r="B247" t="n">
-        <v>0.9934810996055603</v>
+        <v>0.9348109364509583</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.09614624828100204</v>
+        <v>0.6616729497909546</v>
       </c>
       <c r="B248" t="n">
-        <v>0.9882659912109375</v>
+        <v>0.9335071444511414</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.09937857091426849</v>
+        <v>0.882769763469696</v>
       </c>
       <c r="B249" t="n">
-        <v>0.9804432988166809</v>
+        <v>0.9295958280563354</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.1001741588115692</v>
+        <v>0.6281793117523193</v>
       </c>
       <c r="B250" t="n">
-        <v>0.9778357148170471</v>
+        <v>0.920469343662262</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.133264571428299</v>
+        <v>0.7381988763809204</v>
       </c>
       <c r="B251" t="n">
-        <v>0.9661017060279846</v>
+        <v>0.9178618192672729</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1881335228681564</v>
+        <v>0.9436349868774414</v>
       </c>
       <c r="B252" t="n">
-        <v>0.9621903300285339</v>
+        <v>0.9152542352676392</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.05887366086244583</v>
+        <v>0.6227628588676453</v>
       </c>
       <c r="B253" t="n">
-        <v>0.9608865976333618</v>
+        <v>0.9100391268730164</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.06444332003593445</v>
+        <v>0.7176312804222107</v>
       </c>
       <c r="B254" t="n">
-        <v>0.9478487372398376</v>
+        <v>0.9048240184783936</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.126799464225769</v>
+        <v>0.8618939518928528</v>
       </c>
       <c r="B255" t="n">
-        <v>0.9217731356620789</v>
+        <v>0.9022164344787598</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.1823188215494156</v>
+        <v>0.7865056991577148</v>
       </c>
       <c r="B256" t="n">
-        <v>0.9139504432678223</v>
+        <v>0.8983050584793091</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.053736362606287</v>
+        <v>0.7155552506446838</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9126466512680054</v>
+        <v>0.8904824256896973</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.2393242567777634</v>
+        <v>0.7992817759513855</v>
       </c>
       <c r="B258" t="n">
-        <v>0.9113429188728333</v>
+        <v>0.8813559412956238</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.1447156220674515</v>
+        <v>0.848846971988678</v>
       </c>
       <c r="B259" t="n">
-        <v>0.9074315428733826</v>
+        <v>0.8774445652961731</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.039005346596241</v>
+        <v>0.7451278567314148</v>
       </c>
       <c r="B260" t="n">
-        <v>0.9061277508735657</v>
+        <v>0.8722294569015503</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.1036382839083672</v>
+        <v>0.4587588906288147</v>
       </c>
       <c r="B261" t="n">
-        <v>0.9009126424789429</v>
+        <v>0.834419846534729</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.01901280134916306</v>
+        <v>0.8105447888374329</v>
       </c>
       <c r="B262" t="n">
-        <v>0.8917861580848694</v>
+        <v>0.8318122625350952</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.01380252465605736</v>
+        <v>0.7426177859306335</v>
       </c>
       <c r="B263" t="n">
-        <v>0.8904824256896973</v>
+        <v>0.8252933621406555</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.1934045702219009</v>
+        <v>0.6578385233879089</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8891786336898804</v>
+        <v>0.8213819861412048</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.221892923116684</v>
+        <v>0.6109774112701416</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8800521492958069</v>
+        <v>0.8200782537460327</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.1231676414608955</v>
+        <v>0.6710633635520935</v>
       </c>
       <c r="B266" t="n">
-        <v>0.8735332489013672</v>
+        <v>0.8122555613517761</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.199322447180748</v>
+        <v>0.7761443853378296</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8709256649017334</v>
+        <v>0.8083441853523254</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.1005400344729424</v>
+        <v>0.7756490707397461</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8683181405067444</v>
+        <v>0.8057366609573364</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.04549488425254822</v>
+        <v>0.6907062530517578</v>
       </c>
       <c r="B269" t="n">
-        <v>0.8604954481124878</v>
+        <v>0.8018252849578857</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.2771011292934418</v>
+        <v>0.5356929898262024</v>
       </c>
       <c r="B270" t="n">
-        <v>0.855280339717865</v>
+        <v>0.7940025925636292</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.290449857711792</v>
+        <v>0.483830988407135</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8422424793243408</v>
+        <v>0.7874836921691895</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.2700555920600891</v>
+        <v>0.6216139197349548</v>
       </c>
       <c r="B272" t="n">
-        <v>0.8383311629295349</v>
+        <v>0.7848761677742004</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.08556447923183441</v>
+        <v>0.6621197462081909</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8239895701408386</v>
+        <v>0.7822685837745667</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.08157487213611603</v>
+        <v>0.4997149705886841</v>
       </c>
       <c r="B274" t="n">
-        <v>0.816166877746582</v>
+        <v>0.778357207775116</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.1910018175840378</v>
+        <v>0.5042223930358887</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8148630857467651</v>
+        <v>0.7770534753799438</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.05417852848768234</v>
+        <v>0.5788416266441345</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8096479773521423</v>
+        <v>0.7692307829856873</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.1686721295118332</v>
+        <v>0.5998184084892273</v>
       </c>
       <c r="B277" t="n">
-        <v>0.7966101765632629</v>
+        <v>0.7653194069862366</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.1665542870759964</v>
+        <v>0.5332576632499695</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7744458913803101</v>
+        <v>0.7627118825912476</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.3277392983436584</v>
+        <v>0.5033162236213684</v>
       </c>
       <c r="B279" t="n">
-        <v>0.7653194069862366</v>
+        <v>0.754889190196991</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.01575733721256256</v>
+        <v>0.6005843281745911</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7509778141975403</v>
+        <v>0.7379400134086609</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-0.06003126502037048</v>
+        <v>0.7205259203910828</v>
       </c>
       <c r="B281" t="n">
-        <v>0.736636221408844</v>
+        <v>0.7275097966194153</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.1540010571479797</v>
+        <v>0.5136961340904236</v>
       </c>
       <c r="B282" t="n">
-        <v>0.734028697013855</v>
+        <v>0.7262060046195984</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.3196566104888916</v>
+        <v>0.4573148488998413</v>
       </c>
       <c r="B283" t="n">
-        <v>0.7327249050140381</v>
+        <v>0.7249022126197815</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.01983144134283066</v>
+        <v>0.5311669707298279</v>
       </c>
       <c r="B284" t="n">
-        <v>0.7288135886192322</v>
+        <v>0.7235984206199646</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.2998469471931458</v>
+        <v>0.7896575331687927</v>
       </c>
       <c r="B285" t="n">
-        <v>0.7235984206199646</v>
+        <v>0.7170795202255249</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.2176102697849274</v>
+        <v>0.7018668055534363</v>
       </c>
       <c r="B286" t="n">
-        <v>0.7144719958305359</v>
+        <v>0.7079530358314514</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.2871825098991394</v>
+        <v>0.6680486798286438</v>
       </c>
       <c r="B287" t="n">
-        <v>0.6988266110420227</v>
+        <v>0.6936115026473999</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.2515522837638855</v>
+        <v>0.7723565697669983</v>
       </c>
       <c r="B288" t="n">
-        <v>0.6936115026473999</v>
+        <v>0.6910039186477661</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.295270562171936</v>
+        <v>0.5231793522834778</v>
       </c>
       <c r="B289" t="n">
-        <v>0.6883963346481323</v>
+        <v>0.6897001266479492</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.03579284250736237</v>
+        <v>0.5610363483428955</v>
       </c>
       <c r="B290" t="n">
-        <v>0.6792699098587036</v>
+        <v>0.6844850182533264</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.1304592341184616</v>
+        <v>0.3706664443016052</v>
       </c>
       <c r="B291" t="n">
-        <v>0.674054741859436</v>
+        <v>0.6779661178588867</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.2997151613235474</v>
+        <v>0.4963712096214294</v>
       </c>
       <c r="B292" t="n">
-        <v>0.6597131490707397</v>
+        <v>0.6610169410705566</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.1638333350419998</v>
+        <v>0.4321328103542328</v>
       </c>
       <c r="B293" t="n">
-        <v>0.6492829322814941</v>
+        <v>0.6571056246757507</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.08520464599132538</v>
+        <v>0.5866270661354065</v>
       </c>
       <c r="B294" t="n">
-        <v>0.6401564478874207</v>
+        <v>0.6114732623100281</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.1661780625581741</v>
+        <v>0.3741835951805115</v>
       </c>
       <c r="B295" t="n">
-        <v>0.6179921627044678</v>
+        <v>0.6088657379150391</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.439929723739624</v>
+        <v>0.4435206055641174</v>
       </c>
       <c r="B296" t="n">
-        <v>0.6036505699157715</v>
+        <v>0.6075619459152222</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.2770397663116455</v>
+        <v>0.611484706401825</v>
       </c>
       <c r="B297" t="n">
-        <v>0.6023467779159546</v>
+        <v>0.5997392535209656</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.1142416074872017</v>
+        <v>0.8383703827857971</v>
       </c>
       <c r="B298" t="n">
-        <v>0.6010430455207825</v>
+        <v>0.5971316695213318</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-0.03859269618988037</v>
+        <v>0.5095801949501038</v>
       </c>
       <c r="B299" t="n">
-        <v>0.5945241451263428</v>
+        <v>0.591916561126709</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.1085141152143478</v>
+        <v>0.5801886916160583</v>
       </c>
       <c r="B300" t="n">
-        <v>0.591916561126709</v>
+        <v>0.5893089771270752</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.212395042181015</v>
+        <v>0.4961798787117004</v>
       </c>
       <c r="B301" t="n">
-        <v>0.5827900767326355</v>
+        <v>0.5840938687324524</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.04157480597496033</v>
+        <v>0.3514231443405151</v>
       </c>
       <c r="B302" t="n">
-        <v>0.5749673843383789</v>
+        <v>0.5801825523376465</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.2089229077100754</v>
+        <v>0.5236956477165222</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5671446919441223</v>
+        <v>0.5788787603378296</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.2164318412542343</v>
+        <v>0.6754907965660095</v>
       </c>
       <c r="B304" t="n">
-        <v>0.5410690903663635</v>
+        <v>0.5736636519432068</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.3332532644271851</v>
+        <v>0.5960495471954346</v>
       </c>
       <c r="B305" t="n">
-        <v>0.5332463979721069</v>
+        <v>0.571056067943573</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.1957417130470276</v>
+        <v>0.6015731692314148</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5306388735771179</v>
+        <v>0.5671446919441223</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-0.1537363082170486</v>
+        <v>0.6094464063644409</v>
       </c>
       <c r="B307" t="n">
-        <v>0.5241199731826782</v>
+        <v>0.5606257915496826</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.2007919102907181</v>
+        <v>0.5445061326026917</v>
       </c>
       <c r="B308" t="n">
-        <v>0.5228161811828613</v>
+        <v>0.5475879907608032</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.04691586643457413</v>
+        <v>0.5729756951332092</v>
       </c>
       <c r="B309" t="n">
-        <v>0.5202085971832275</v>
+        <v>0.5423728823661804</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-0.1622352451086044</v>
+        <v>0.2602038681507111</v>
       </c>
       <c r="B310" t="n">
-        <v>0.5110821127891541</v>
+        <v>0.5410690903663635</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.08167333155870438</v>
+        <v>0.4888741374015808</v>
       </c>
       <c r="B311" t="n">
-        <v>0.5097783803939819</v>
+        <v>0.529335081577301</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.1981185227632523</v>
+        <v>0.361361563205719</v>
       </c>
       <c r="B312" t="n">
-        <v>0.5019556879997253</v>
+        <v>0.5189048051834106</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.001508817076683044</v>
+        <v>0.7362105846405029</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4889178574085236</v>
+        <v>0.5149934887886047</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.3273440599441528</v>
+        <v>0.3834974765777588</v>
       </c>
       <c r="B314" t="n">
-        <v>0.4863103032112122</v>
+        <v>0.5136896967887878</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.2452260553836823</v>
+        <v>0.2727820575237274</v>
       </c>
       <c r="B315" t="n">
-        <v>0.4837027490139008</v>
+        <v>0.5045632123947144</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.2156542241573334</v>
+        <v>0.5630426406860352</v>
       </c>
       <c r="B316" t="n">
-        <v>0.481095165014267</v>
+        <v>0.4967405498027802</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.08067537844181061</v>
+        <v>0.3291963934898376</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4745762646198273</v>
+        <v>0.491525411605835</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.2024734169244766</v>
+        <v>0.2158069610595703</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4719687104225159</v>
+        <v>0.4850065112113953</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.06875297427177429</v>
+        <v>0.7024433016777039</v>
       </c>
       <c r="B319" t="n">
-        <v>0.4693611562252045</v>
+        <v>0.4823989570140839</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.06824177503585815</v>
+        <v>0.524868369102478</v>
       </c>
       <c r="B320" t="n">
-        <v>0.4654498100280762</v>
+        <v>0.4771838188171387</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.09527185559272766</v>
+        <v>0.2874709367752075</v>
       </c>
       <c r="B321" t="n">
-        <v>0.4537157714366913</v>
+        <v>0.4732725024223328</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.1115047484636307</v>
+        <v>0.1945022344589233</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4511082172393799</v>
+        <v>0.4693611562252045</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.08835132420063019</v>
+        <v>0.4754744172096252</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4471968710422516</v>
+        <v>0.4641460180282593</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.04859314858913422</v>
+        <v>0.6578493118286133</v>
       </c>
       <c r="B324" t="n">
-        <v>0.4406779706478119</v>
+        <v>0.460234671831131</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.3790891766548157</v>
+        <v>0.5309250950813293</v>
       </c>
       <c r="B325" t="n">
-        <v>0.4315514862537384</v>
+        <v>0.4550195634365082</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.2724126577377319</v>
+        <v>0.4126880764961243</v>
       </c>
       <c r="B326" t="n">
-        <v>0.4276401698589325</v>
+        <v>0.4432855248451233</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.3890326619148254</v>
+        <v>0.6563940644264221</v>
       </c>
       <c r="B327" t="n">
-        <v>0.418513685464859</v>
+        <v>0.4380704164505005</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.3483076095581055</v>
+        <v>0.4950492382049561</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4172099232673645</v>
+        <v>0.4367666244506836</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.204589769244194</v>
+        <v>0.293508917093277</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4067796468734741</v>
+        <v>0.4341590702533722</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.1613959223031998</v>
+        <v>0.4105300307273865</v>
       </c>
       <c r="B330" t="n">
-        <v>0.4041720926761627</v>
+        <v>0.4237288236618042</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.4241306781768799</v>
+        <v>0.2805323600769043</v>
       </c>
       <c r="B331" t="n">
-        <v>0.4015645384788513</v>
+        <v>0.4198174774646759</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.1062056496739388</v>
+        <v>0.3464007377624512</v>
       </c>
       <c r="B332" t="n">
-        <v>0.3950456380844116</v>
+        <v>0.3898304998874664</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.2525368332862854</v>
+        <v>0.2349392026662827</v>
       </c>
       <c r="B333" t="n">
-        <v>0.3911342918872833</v>
+        <v>0.3833115994930267</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.3881739377975464</v>
+        <v>0.189311757683754</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3898304998874664</v>
+        <v>0.376792699098587</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.2233979851007462</v>
+        <v>0.5736559629440308</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3885267376899719</v>
+        <v>0.3754889070987701</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.2898563146591187</v>
+        <v>0.4255758821964264</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3859191536903381</v>
+        <v>0.3689700067043304</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.2042772322893143</v>
+        <v>0.5276921987533569</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3807040452957153</v>
+        <v>0.3650586605072021</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.2533873319625854</v>
+        <v>0.3712543845176697</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3780964910984039</v>
+        <v>0.3637548983097076</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.4473243951797485</v>
+        <v>0.3026853799819946</v>
       </c>
       <c r="B339" t="n">
-        <v>0.376792699098587</v>
+        <v>0.3611473143100739</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.1484711021184921</v>
+        <v>0.4459657669067383</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3702737987041473</v>
+        <v>0.3572359979152679</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.1541198492050171</v>
+        <v>0.5091596841812134</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3624511063098907</v>
+        <v>0.3389830589294434</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.2668729424476624</v>
+        <v>0.3284136950969696</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3598435521125793</v>
+        <v>0.3363754749298096</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.1604593694210052</v>
+        <v>0.2525442838668823</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3585397601127625</v>
+        <v>0.3272490203380585</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.05011767148971558</v>
+        <v>0.07099476456642151</v>
       </c>
       <c r="B344" t="n">
-        <v>0.355932205915451</v>
+        <v>0.3220339119434357</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.263456404209137</v>
+        <v>0.2411579191684723</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3481095135211945</v>
+        <v>0.3207301199436188</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.4374458193778992</v>
+        <v>0.4412958323955536</v>
       </c>
       <c r="B346" t="n">
-        <v>0.3311603665351868</v>
+        <v>0.3142112195491791</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.2928049564361572</v>
+        <v>0.4290974736213684</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3181225657463074</v>
+        <v>0.2959582805633545</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.2059439271688461</v>
+        <v>0.327552855014801</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3102998733520508</v>
+        <v>0.2698826491832733</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.2653893828392029</v>
+        <v>0.479616105556488</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3050847351551056</v>
+        <v>0.2646675407886505</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.3671941757202148</v>
+        <v>0.6188907027244568</v>
       </c>
       <c r="B350" t="n">
-        <v>0.2998696267604828</v>
+        <v>0.2581486403942108</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.2336663603782654</v>
+        <v>0.3245338797569275</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2737939953804016</v>
+        <v>0.2529335021972656</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.2685303688049316</v>
+        <v>0.1476552933454514</v>
       </c>
       <c r="B352" t="n">
-        <v>0.2685788869857788</v>
+        <v>0.2477183789014816</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.06058536469936371</v>
+        <v>0.4058606624603271</v>
       </c>
       <c r="B353" t="n">
-        <v>0.2672750949859619</v>
+        <v>0.2411994785070419</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.05191461741924286</v>
+        <v>0.4909968376159668</v>
       </c>
       <c r="B354" t="n">
-        <v>0.265971302986145</v>
+        <v>0.2372881323099136</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.2245469689369202</v>
+        <v>0.5437553524971008</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2581486403942108</v>
+        <v>0.2333767861127853</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.3533544540405273</v>
+        <v>0.1516818106174469</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2529335021972656</v>
+        <v>0.2281616628170013</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.2399730533361435</v>
+        <v>0.03751292452216148</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2294654548168182</v>
+        <v>0.2216427624225616</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.09082460403442383</v>
+        <v>0.2761610448360443</v>
       </c>
       <c r="B358" t="n">
-        <v>0.2281616628170013</v>
+        <v>0.194263368844986</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.09842886030673981</v>
+        <v>0.1940438896417618</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2255541086196899</v>
+        <v>0.1903520226478577</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.3113813996315002</v>
+        <v>0.2284878790378571</v>
       </c>
       <c r="B360" t="n">
-        <v>0.2177314162254333</v>
+        <v>0.183833122253418</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.1052543371915817</v>
+        <v>0.3889137506484985</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2138200849294662</v>
+        <v>0.1825293302536011</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.20868019759655</v>
+        <v>0.2968375682830811</v>
       </c>
       <c r="B362" t="n">
-        <v>0.2125162929296494</v>
+        <v>0.17340287566185</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.04793868213891983</v>
+        <v>0.5059120655059814</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2073011696338654</v>
+        <v>0.1720990836620331</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.03044365346431732</v>
+        <v>0.2827663123607635</v>
       </c>
       <c r="B364" t="n">
-        <v>0.204693615436554</v>
+        <v>0.1681877374649048</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.1857736259698868</v>
+        <v>0.2008509933948517</v>
       </c>
       <c r="B365" t="n">
-        <v>0.2007822692394257</v>
+        <v>0.1655801832675934</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.2107914239168167</v>
+        <v>0.58048015832901</v>
       </c>
       <c r="B366" t="n">
-        <v>0.1929595768451691</v>
+        <v>0.1629726141691208</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.3713517785072327</v>
+        <v>0.4741052985191345</v>
       </c>
       <c r="B367" t="n">
-        <v>0.189048245549202</v>
+        <v>0.1603650599718094</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.09546507149934769</v>
+        <v>0.3638539910316467</v>
       </c>
       <c r="B368" t="n">
-        <v>0.1864406764507294</v>
+        <v>0.1512385904788971</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-0.03371753543615341</v>
+        <v>0.2080312073230743</v>
       </c>
       <c r="B369" t="n">
-        <v>0.183833122253418</v>
+        <v>0.1486310362815857</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.1261708736419678</v>
+        <v>0.4139142334461212</v>
       </c>
       <c r="B370" t="n">
-        <v>0.1707953065633774</v>
+        <v>0.1382007896900177</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.0006802380084991455</v>
+        <v>0.6474776864051819</v>
       </c>
       <c r="B371" t="n">
-        <v>0.1681877374649048</v>
+        <v>0.1368969976902008</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-0.002723783254623413</v>
+        <v>0.3401455283164978</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1564537137746811</v>
+        <v>0.1316818743944168</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-0.02747812122106552</v>
+        <v>0.3718589544296265</v>
       </c>
       <c r="B373" t="n">
-        <v>0.1551499366760254</v>
+        <v>0.1277705281972885</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.1944755613803864</v>
+        <v>0.6987056732177734</v>
       </c>
       <c r="B374" t="n">
-        <v>0.1525423675775528</v>
+        <v>0.1238591894507408</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.175204798579216</v>
+        <v>0.3447458148002625</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1499348133802414</v>
+        <v>0.1186440661549568</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.1033974885940552</v>
+        <v>0.4810128211975098</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1329856514930725</v>
+        <v>0.1160365045070648</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.2495235353708267</v>
+        <v>0.2138888835906982</v>
       </c>
       <c r="B377" t="n">
-        <v>0.1316818743944168</v>
+        <v>0.1134289428591728</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.1026405692100525</v>
+        <v>0.1642278730869293</v>
       </c>
       <c r="B378" t="n">
-        <v>0.1277705281972885</v>
+        <v>0.1121251657605171</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.1998194456100464</v>
+        <v>0.2944076955318451</v>
       </c>
       <c r="B379" t="n">
-        <v>0.1264667510986328</v>
+        <v>0.09517601132392883</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.05427303910255432</v>
+        <v>0.4770596027374268</v>
       </c>
       <c r="B380" t="n">
-        <v>0.1095176041126251</v>
+        <v>0.08865710347890854</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.07527732849121094</v>
+        <v>0.3083383738994598</v>
       </c>
       <c r="B381" t="n">
-        <v>0.1082138195633888</v>
+        <v>0.08604954183101654</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.3535033464431763</v>
+        <v>0.4076377153396606</v>
       </c>
       <c r="B382" t="n">
-        <v>0.1003911346197128</v>
+        <v>0.07431551814079285</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.3916409015655518</v>
+        <v>0.1734226197004318</v>
       </c>
       <c r="B383" t="n">
-        <v>0.09908735007047653</v>
+        <v>0.06649282574653625</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.01708399504423141</v>
+        <v>0.1608113944530487</v>
       </c>
       <c r="B384" t="n">
-        <v>0.09126466512680054</v>
+        <v>0.05606258288025856</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.07665497064590454</v>
+        <v>0.09297531843185425</v>
       </c>
       <c r="B385" t="n">
-        <v>0.08996088802814484</v>
+        <v>0.05475880205631256</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.4046732783317566</v>
+        <v>0.3099779784679413</v>
       </c>
       <c r="B386" t="n">
-        <v>0.08474576473236084</v>
+        <v>0.05345502123236656</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.2225483953952789</v>
+        <v>-0.07731194794178009</v>
       </c>
       <c r="B387" t="n">
-        <v>0.07561929523944855</v>
+        <v>0.05215124040842056</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.225488543510437</v>
+        <v>0.2503648996353149</v>
       </c>
       <c r="B388" t="n">
-        <v>0.06779661029577255</v>
+        <v>0.05084745585918427</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.02148829773068428</v>
+        <v>-0.03151431307196617</v>
       </c>
       <c r="B389" t="n">
-        <v>0.05736636370420456</v>
+        <v>0.03780964761972427</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.2745543718338013</v>
+        <v>0.1417458206415176</v>
       </c>
       <c r="B390" t="n">
-        <v>0.05606258288025856</v>
+        <v>0.02868318185210228</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.09727670252323151</v>
+        <v>0.330869048833847</v>
       </c>
       <c r="B391" t="n">
-        <v>0.04432855173945427</v>
+        <v>0.02737940102815628</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.167341873049736</v>
+        <v>-0.1345701068639755</v>
       </c>
       <c r="B392" t="n">
-        <v>0.02346805669367313</v>
+        <v>0.02607562020421028</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.2651777565479279</v>
+        <v>-0.8554245829582214</v>
       </c>
       <c r="B393" t="n">
-        <v>0.02216427586972713</v>
+        <v>0.01825293339788914</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.3969343900680542</v>
+        <v>0.09319889545440674</v>
       </c>
       <c r="B394" t="n">
-        <v>0.01694915257394314</v>
+        <v>0.01434159092605114</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.1935395449399948</v>
+        <v>-0.6398133635520935</v>
       </c>
       <c r="B395" t="n">
         <v>0.01173402834683657</v>
@@ -3599,18 +3599,18 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.2183324843645096</v>
+        <v>-0.8296646475791931</v>
       </c>
       <c r="B396" t="n">
-        <v>0.00651890505105257</v>
+        <v>0.003911342937499285</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.1547410786151886</v>
+        <v>-0.3578365445137024</v>
       </c>
       <c r="B397" t="n">
-        <v>0.003911342937499285</v>
+        <v>0.001303780940361321</v>
       </c>
     </row>
   </sheetData>
